--- a/outputs/KEYWEST5.xlsx
+++ b/outputs/KEYWEST5.xlsx
@@ -425,8 +425,8 @@
       <c r="A1" t="inlineStr">
         <is>
           <t>Answer: YES
-Facets: Motivations, Information Processing Style
-Why: The Syllabus page is explicitly mentioned in the course introduction text as containing a lot of essential information, including a syllabus quiz. This aligns with Abi's motivation to accomplish her tasks and her comprehensive information processing style, as she would want to gather all relevant information before proceeding.</t>
+Facets: 1. Motivations, 2. Information Processing Style
+Why: The Syllabus page is explicitly mentioned in the instructions on the Home page as a starting point for understanding the course structure and requirements. This aligns with Abi's motivation to accomplish tasks and her comprehensive information processing style, as she would want to gather all necessary information before proceeding.</t>
         </is>
       </c>
     </row>
@@ -434,8 +434,8 @@
       <c r="A2" t="inlineStr">
         <is>
           <t>Answer: YES
-Facets: Motivations, Information Processing Style
-Why: The "Syllabus" link is clearly visible in the left pane, and the page text instructs students to click on the Syllabus link to begin the course. This matches Abi's motivation to accomplish her tasks and her preference for comprehensive information gathering. She will understand that clicking the "Syllabus" link is a necessary step based on the provided instructions.</t>
+Facets: 1. Motivations, 2. Information Processing Style
+Why: The Home page clearly instructs students to click on "Syllabus" in the left pane to begin the course. This aligns with Abi's motivation to accomplish tasks and her comprehensive information processing style, as she would follow the provided instructions to gather necessary information. The page provides clear guidance, making it easy for Abi to know what to do at this step.</t>
         </is>
       </c>
     </row>
@@ -443,8 +443,8 @@
       <c r="A3" t="inlineStr">
         <is>
           <t>Answer: YES
-Facets: Motivations, Information Processing Style
-Why: After clicking the "Syllabus" link, Abi lands on a page titled "Course Syllabus" that includes detailed information about the weekly schedule, what is due, and when. This page provides a comprehensive overview of the course requirements, aligning with Abi's motivation to accomplish tasks and her preference for comprehensive information processing. Abi will be able to see the Week 1 deadlines and tasks clearly, confirming she is making progress toward her goal.</t>
+Facets: 1. Motivations, 2. Information Processing Style
+Why: After clicking "Syllabus," Abi lands on a page that clearly displays the course syllabus, including a weekly schedule with detailed information on what is due each week. This aligns with Abi's motivation to accomplish tasks and her comprehensive information processing style, as she can see the specific tasks and deadlines for Week 1. The page provides the necessary information, confirming that Abi is making progress toward her goal.</t>
         </is>
       </c>
     </row>
@@ -452,8 +452,8 @@
       <c r="A4" t="inlineStr">
         <is>
           <t>Answer: YES
-Facets: Motivations, Information Processing Style
-Why: The page titled "Course Syllabus" contains a "Syllabus – Weekly schedule" section that outlines the activities and deadlines for each week. This directly aligns with Abi's goal to figure out what to do during Week 1 and what the deadlines are. Abi, who prefers comprehensive information, would see this as a crucial step towards achieving her overall use case as it provides the detailed summary she needs.</t>
+Facets: 1. Motivations, 2. Information Processing Style
+Why: The summary of activities and deadlines is a crucial part of understanding what needs to be done during Week 1 and when it is due. This aligns with Abi's motivation to accomplish tasks and her comprehensive information processing style, as she would want to gather all necessary information about the activities and deadlines to plan her work effectively. The Syllabus page provides a clear weekly schedule, making it a logical step toward achieving her overall goal.</t>
         </is>
       </c>
     </row>
@@ -461,8 +461,8 @@
       <c r="A5" t="inlineStr">
         <is>
           <t>Answer: YES
-Facets: Motivations, Information Processing Style
-Why: The "Course Summary" and "Syllabus – Weekly schedule" are clearly visible on the page, indicating that scrolling down will provide the required information. Abi, motivated to find out what to do during Week 1 and preferring comprehensive information, will recognize that reading through this section is a necessary step to gather the details she needs. The page layout and headings make it clear what information will be found by scrolling down.</t>
+Facets: 1. Motivations, 2. Information Processing Style
+Why: The page clearly displays a "Course Summary" section and a detailed "Syllabus – Weekly schedule" table. Abi, motivated to find out what to do during Week 1 and the deadlines, will recognize that scrolling down to read through this section is a logical step. This aligns with her comprehensive information processing style, as she would want to gather all necessary details about the activities and deadlines. The page is well-structured and provides clear information, making it easy for Abi to know what to do at this step.</t>
         </is>
       </c>
     </row>
@@ -470,8 +470,8 @@
       <c r="A6" t="inlineStr">
         <is>
           <t>Answer: YES
-Facets: Motivations, Information Processing Style
-Why: After scrolling down to the "Course Summary" section, Abi will see the "Syllabus – Weekly schedule" table, which clearly outlines the activities and deadlines for each week, including Week 1. This matches Abi's goal of finding out what to do during Week 1 and what the deadlines are. The information is presented comprehensively, ensuring Abi understands she is making progress toward her goal and has all the necessary details.</t>
+Facets: 1. Motivations, 2. Information Processing Style
+Why: After scrolling down to the "Course Summary" and reading through it, Abi will see a detailed "Syllabus – Weekly schedule" table that outlines the activities and deadlines for each week, including Week 1. This aligns with her motivation to find out what to do during Week 1 and her comprehensive information processing style, as the table provides all the necessary details in a clear and organized manner. Abi will know she is making progress toward her goal and has the information she needs.</t>
         </is>
       </c>
     </row>

--- a/outputs/KEYWEST5.xlsx
+++ b/outputs/KEYWEST5.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,8 +425,8 @@
       <c r="A1" t="inlineStr">
         <is>
           <t>Answer: YES
-Facets: Motivations, Information Processing Style
-Why: The Syllabus page is explicitly mentioned in the instructions on the Home page as a necessary step to begin the course. This aligns with Abi's motivation to accomplish tasks and her comprehensive information processing style, as she would want to gather all relevant information before proceeding.</t>
+Facets: 1. Motivations, 2. Information Processing Style
+Why: The Syllabus page is explicitly mentioned in the text as a crucial step to begin the course and contains important information. ABI, who prefers comprehensive information processing, would recognize the importance of the Syllabus in understanding what to do during Week 1 and the deadlines. This aligns with ABI's motivation to accomplish tasks and gather complete information before proceeding.</t>
         </is>
       </c>
     </row>
@@ -434,8 +434,8 @@
       <c r="A2" t="inlineStr">
         <is>
           <t>Answer: YES
-Facets: Motivations, Information Processing Style
-Why: The Home page clearly instructs students to click on "Syllabus" in the left pane to begin the course. This aligns with Abi's motivation to accomplish tasks and her comprehensive information processing style, as she would follow the provided instructions to gather all necessary information. The page is straightforward and provides clear guidance on what to do next.</t>
+Facets: 1. Motivations, 2. Information Processing Style, 4. Computer Self-Efficacy
+Why: The page clearly instructs the user to click on "Syllabus" in the left pane to begin the course and read important information. This aligns with ABI's motivation to accomplish tasks and gather comprehensive information. The clear instruction boosts ABI's confidence (Computer Self-Efficacy) in knowing what to do at this step. The presence of the "Syllabus" link in the left pane makes it straightforward for ABI to take this action.</t>
         </is>
       </c>
     </row>
@@ -443,8 +443,8 @@
       <c r="A3" t="inlineStr">
         <is>
           <t>Answer: YES
-Facets: Motivations, Information Processing Style
-Why: After clicking "Syllabus," Abi lands on a page titled "Course Syllabus," which includes a detailed weekly schedule. This page provides clear information about what is due each week, including Week 1. This aligns with Abi's motivation to accomplish tasks and her comprehensive information processing style, as she can see that she is making progress toward her goal and has access to all the necessary information.</t>
+Facets: 1. Motivations, 2. Information Processing Style
+Why: After clicking "Syllabus," ABI lands on a page titled "Course Syllabus" with a detailed weekly schedule. This page provides comprehensive information about what is due each week, including Week 1. The clear layout and detailed schedule align with ABI's motivation to accomplish tasks and their preference for comprehensive information processing. ABI will know they are making progress toward their goal and will have the necessary information about Week 1 deadlines and tasks.</t>
         </is>
       </c>
     </row>
@@ -452,8 +452,8 @@
       <c r="A4" t="inlineStr">
         <is>
           <t>Answer: YES
-Facets: Motivations, Information Processing Style
-Why: The Syllabus page provides a detailed weekly schedule, which includes the activities and deadlines for each week. This aligns with Abi's motivation to accomplish tasks and her comprehensive information processing style, as she would consider finding a summary of activities and deadlines a crucial step toward understanding what to do during Week 1 and meeting the deadlines.</t>
+Facets: 1. Motivations, 2. Information Processing Style
+Why: The page titled "Course Syllabus" includes a "Syllabus – Weekly schedule" section that lists activities and deadlines for each week. ABI, who is motivated to find out what to do during Week 1 and the deadlines, would recognize that finding a summary of activities and deadlines is a crucial step toward achieving the overall use case. The detailed weekly schedule aligns with ABI's preference for comprehensive information processing, making it clear that this step is essential for understanding the course requirements.</t>
         </is>
       </c>
     </row>
@@ -461,8 +461,8 @@
       <c r="A5" t="inlineStr">
         <is>
           <t>Answer: YES
-Facets: Motivations, Information Processing Style
-Why: The page clearly displays a "Course Summary" section and a detailed "Syllabus – Weekly schedule" table. Abi, motivated to find out what to do during Week 1 and the deadlines, will recognize that scrolling down to read through this section is a logical step. This aligns with her comprehensive information processing style, as she would want to gather all relevant details to understand the activities and deadlines for Week 1. The page is straightforward and provides the necessary information, making it easy for Abi to take this action.</t>
+Facets: 1. Motivations, 2. Information Processing Style
+Why: The page prominently displays the "Syllabus – Weekly schedule" section, which is clearly labeled and contains detailed information about weekly activities and deadlines. ABI, who is motivated to find out what to do during Week 1 and the deadlines, will recognize that scrolling down to read the "Course Summary" is a logical step. The clear layout and detailed schedule align with ABI's preference for comprehensive information processing, making it straightforward for ABI to know what to do at this step and to take the action of scrolling down and reading through the summary.</t>
         </is>
       </c>
     </row>
@@ -470,8 +470,8 @@
       <c r="A6" t="inlineStr">
         <is>
           <t>Answer: YES
-Facets: Motivations, Information Processing Style
-Why: After scrolling down to the "Course Summary" and reading through the "Syllabus – Weekly schedule," Abi will see a detailed list of activities and deadlines for each week, including Week 1. This aligns with her motivation to find out what to do during Week 1 and her comprehensive information processing style, as she will have all the necessary information to understand the activities and deadlines. The page provides clear and detailed information, confirming that she is making progress toward her goal.</t>
+Facets: 1. Motivations, 2. Information Processing Style
+Why: After scrolling down to the "Course Summary" and reading through it, ABI will see the "Syllabus – Weekly schedule" section, which provides detailed information about the activities and deadlines for each week, including Week 1. This aligns with ABI's motivation to find out what to do during Week 1 and the deadlines. The clear and detailed schedule supports ABI's comprehensive information processing style, ensuring that ABI knows they did the right thing and is making progress toward their goal. The information provided is sufficient for ABI to understand the activities and deadlines for Week 1.</t>
         </is>
       </c>
     </row>
